--- a/data/trans_orig/CoTrAQ_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R2-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13242</v>
+        <v>13512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31411</v>
+        <v>33790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1183939888422796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07505380484674284</v>
+        <v>0.0765837090494169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1780348685575645</v>
+        <v>0.19151696453374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -763,19 +763,19 @@
         <v>25232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16670</v>
+        <v>17397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35790</v>
+        <v>36349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1972534709123813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1303198979264195</v>
+        <v>0.1360034225501939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2797890530729585</v>
+        <v>0.2841574751026747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -784,19 +784,19 @@
         <v>46121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33459</v>
+        <v>34823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60816</v>
+        <v>59710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1515385076481895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1099354770325982</v>
+        <v>0.1144180490601955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.199823628858293</v>
+        <v>0.1961890248435594</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>155544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>145021</v>
+        <v>142642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163190</v>
+        <v>162920</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8816060111577204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8219651314424357</v>
+        <v>0.8084830354662599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9249461951532572</v>
+        <v>0.923416290950583</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -834,19 +834,19 @@
         <v>102686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92128</v>
+        <v>91569</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111248</v>
+        <v>110521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8027465290876187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7202109469270414</v>
+        <v>0.7158425248973258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8696801020735803</v>
+        <v>0.8639965774498061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>247</v>
@@ -855,19 +855,19 @@
         <v>258229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>243534</v>
+        <v>244640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>270891</v>
+        <v>269527</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8484614923518105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.800176371141707</v>
+        <v>0.8038109751564406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8900645229674017</v>
+        <v>0.8855819509398045</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>136443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115894</v>
+        <v>114758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158912</v>
+        <v>160166</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1539576735740446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1307716634314291</v>
+        <v>0.1294894578014855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1793115908137066</v>
+        <v>0.1807258952248436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -980,19 +980,19 @@
         <v>99783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82429</v>
+        <v>81372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120082</v>
+        <v>120106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1824399286060654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.150709341017385</v>
+        <v>0.1487773345707265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2195536467773176</v>
+        <v>0.2195970294136384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -1001,19 +1001,19 @@
         <v>236226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>209774</v>
+        <v>205146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266032</v>
+        <v>265082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1648272739882368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1463705672637992</v>
+        <v>0.1431414468933228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1856243298427943</v>
+        <v>0.1849617393957373</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>749792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>727323</v>
+        <v>726069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>770341</v>
+        <v>771477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8460423264259554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8206884091862932</v>
+        <v>0.8192741047751562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8692283365685707</v>
+        <v>0.8705105421985142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -1051,19 +1051,19 @@
         <v>447154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426855</v>
+        <v>426831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>464508</v>
+        <v>465565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8175600713939346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7804463532226823</v>
+        <v>0.7804029705863615</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.849290658982615</v>
+        <v>0.8512226654292736</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1130</v>
@@ -1072,19 +1072,19 @@
         <v>1196946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1167140</v>
+        <v>1168090</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1223398</v>
+        <v>1228026</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8351727260117632</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8143756701572058</v>
+        <v>0.8150382606042628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8536294327362008</v>
+        <v>0.8568585531066774</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>24808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16175</v>
+        <v>15447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37969</v>
+        <v>36540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07995745959368551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05213300017788772</v>
+        <v>0.04978571152209024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1223782822336519</v>
+        <v>0.1177717002404996</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1197,19 +1197,19 @@
         <v>28552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19366</v>
+        <v>19592</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42326</v>
+        <v>41636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1263796108280905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08571977731071283</v>
+        <v>0.086719088223916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1873477213553921</v>
+        <v>0.1842919995294248</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1218,19 +1218,19 @@
         <v>53360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39212</v>
+        <v>39978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70546</v>
+        <v>72471</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09951744325448689</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07313203224767985</v>
+        <v>0.0745596748377617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1315704308325728</v>
+        <v>0.1351600292771828</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>285455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272294</v>
+        <v>273723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294088</v>
+        <v>294816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9200425404063145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.877621717766348</v>
+        <v>0.8822282997595003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9478669998221122</v>
+        <v>0.9502142884779096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -1268,19 +1268,19 @@
         <v>197370</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183596</v>
+        <v>184286</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>206556</v>
+        <v>206330</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8736203891719094</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8126522786446078</v>
+        <v>0.8157080004705751</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9142802226892871</v>
+        <v>0.9132809117760841</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>438</v>
@@ -1289,19 +1289,19 @@
         <v>482825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>465639</v>
+        <v>463714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496973</v>
+        <v>496207</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9004825567455131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8684295691674272</v>
+        <v>0.8648399707228172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9268679677523202</v>
+        <v>0.9254403251622383</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>182139</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155009</v>
+        <v>157205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>209634</v>
+        <v>209343</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1326644352680662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1129038226647501</v>
+        <v>0.1145036336771614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1526907489721081</v>
+        <v>0.152478850679211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -1414,19 +1414,19 @@
         <v>153567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131344</v>
+        <v>130034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>180077</v>
+        <v>179349</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1704832179232793</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1458121836195779</v>
+        <v>0.1443579796318962</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1999125155958644</v>
+        <v>0.1991052121637808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>306</v>
@@ -1435,19 +1435,19 @@
         <v>335706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>300042</v>
+        <v>302589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>369631</v>
+        <v>376956</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1476471402046849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1319616767481667</v>
+        <v>0.1330819821119638</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1625677437416075</v>
+        <v>0.1657890383033187</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1190791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1163296</v>
+        <v>1163587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1217921</v>
+        <v>1215725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8673355647319339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8473092510278921</v>
+        <v>0.8475211493207889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.88709617733525</v>
+        <v>0.8854963663228383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>694</v>
@@ -1485,19 +1485,19 @@
         <v>747210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>720700</v>
+        <v>721428</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>769433</v>
+        <v>770743</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8295167820767206</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8000874844041355</v>
+        <v>0.8008947878362191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8541878163804221</v>
+        <v>0.8556420203681037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1815</v>
@@ -1506,19 +1506,19 @@
         <v>1938001</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1904076</v>
+        <v>1896751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1973665</v>
+        <v>1971118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8523528597953152</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8374322562583926</v>
+        <v>0.8342109616966813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8680383232518334</v>
+        <v>0.8669180178880361</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>50105</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38746</v>
+        <v>39185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62932</v>
+        <v>61432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3545999428556315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2742121896597975</v>
+        <v>0.2773206407610251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4453840045062822</v>
+        <v>0.4347688110606622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -1870,19 +1870,19 @@
         <v>28055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20869</v>
+        <v>20495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36156</v>
+        <v>36562</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4058389248525967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3018941969408339</v>
+        <v>0.2964850273961199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5230337155048796</v>
+        <v>0.5289097824372009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -1891,19 +1891,19 @@
         <v>78159</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64155</v>
+        <v>63999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92402</v>
+        <v>92519</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3714326760977992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3048808039095289</v>
+        <v>0.3041367719023423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4391178279684889</v>
+        <v>0.4396710819574727</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>91194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78367</v>
+        <v>79867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102553</v>
+        <v>102114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6454000571443685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5546159954937177</v>
+        <v>0.5652311889393378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7257878103402026</v>
+        <v>0.722679359238975</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -1941,19 +1941,19 @@
         <v>41073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32972</v>
+        <v>32566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48259</v>
+        <v>48633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5941610751474034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4769662844951204</v>
+        <v>0.4710902175627995</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6981058030591667</v>
+        <v>0.7035149726038802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>126</v>
@@ -1962,19 +1962,19 @@
         <v>132268</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118025</v>
+        <v>117908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>146272</v>
+        <v>146428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6285673239022008</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5608821720315113</v>
+        <v>0.5603289180425276</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6951191960904711</v>
+        <v>0.6958632280976578</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>238083</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212984</v>
+        <v>212495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267513</v>
+        <v>266605</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2578885807220746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2307011425941673</v>
+        <v>0.2301723190567919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2897667685949382</v>
+        <v>0.2887833682927263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -2087,19 +2087,19 @@
         <v>205308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182793</v>
+        <v>183121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>228694</v>
+        <v>229883</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3155953659416756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2809858502049248</v>
+        <v>0.2814892437119746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.351542975211631</v>
+        <v>0.3533702367738846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>421</v>
@@ -2108,19 +2108,19 @@
         <v>443392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>404899</v>
+        <v>408613</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>478648</v>
+        <v>481252</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2817430032127138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2572834237254466</v>
+        <v>0.2596440308140163</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3041457262910867</v>
+        <v>0.3058003962331171</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>685118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>655688</v>
+        <v>656596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>710217</v>
+        <v>710706</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7421114192779253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7102332314050618</v>
+        <v>0.7112166317072731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7692988574058327</v>
+        <v>0.7698276809432081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>433</v>
@@ -2158,19 +2158,19 @@
         <v>445235</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>421849</v>
+        <v>420660</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>467750</v>
+        <v>467422</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6844046340583244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6484570247883691</v>
+        <v>0.6466297632261154</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7190141497950752</v>
+        <v>0.7185107562880254</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1078</v>
@@ -2179,19 +2179,19 @@
         <v>1130353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1095097</v>
+        <v>1092493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1168846</v>
+        <v>1165132</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7182569967872862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6958542737089135</v>
+        <v>0.6941996037668828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7427165762745537</v>
+        <v>0.7403559691859837</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>53897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41364</v>
+        <v>40413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74353</v>
+        <v>69949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1546811035102791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1187139173080435</v>
+        <v>0.1159842775233494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2133899984331213</v>
+        <v>0.2007510139778046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2304,19 +2304,19 @@
         <v>64325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50171</v>
+        <v>50972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80107</v>
+        <v>80038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2085407186142185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1626551283935394</v>
+        <v>0.1652500908611273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2597046051311933</v>
+        <v>0.2594835365066822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -2325,19 +2325,19 @@
         <v>118222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97896</v>
+        <v>99551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138501</v>
+        <v>140798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1799716976315687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1490285945697992</v>
+        <v>0.1515484408370139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.210843195104643</v>
+        <v>0.2143398344264805</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>294541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274085</v>
+        <v>278489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307074</v>
+        <v>308025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8453188964897209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7866100015668785</v>
+        <v>0.7992489860221953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8812860826919564</v>
+        <v>0.8840157224766505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -2375,19 +2375,19 @@
         <v>244128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228346</v>
+        <v>228415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258282</v>
+        <v>257481</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7914592813857815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7402953948688068</v>
+        <v>0.7405164634933179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8373448716064607</v>
+        <v>0.8347499091388728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -2396,19 +2396,19 @@
         <v>538669</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518390</v>
+        <v>516093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>558995</v>
+        <v>557340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8200283023684313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7891568048953571</v>
+        <v>0.7856601655735199</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8509714054302012</v>
+        <v>0.8484515591629861</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>342084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>306668</v>
+        <v>311757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>376427</v>
+        <v>377833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2421085440126096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2170426304343734</v>
+        <v>0.2206443850515668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2664144406369608</v>
+        <v>0.2674093174558486</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>293</v>
@@ -2521,19 +2521,19 @@
         <v>297689</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272304</v>
+        <v>267029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>327660</v>
+        <v>327312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2895450619975465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2648547583291896</v>
+        <v>0.2597238524237369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3186968191357386</v>
+        <v>0.3183582059313204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>605</v>
@@ -2542,19 +2542,19 @@
         <v>639773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>597015</v>
+        <v>593422</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>683434</v>
+        <v>681587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.262087817645849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2445716983585706</v>
+        <v>0.2430999273278013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2799739418510516</v>
+        <v>0.2792174326997353</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>1070854</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1036511</v>
+        <v>1035105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1106270</v>
+        <v>1101181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7578914559873904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7335855593630394</v>
+        <v>0.7325906825441514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7829573695656268</v>
+        <v>0.7793556149484332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>711</v>
@@ -2592,19 +2592,19 @@
         <v>730436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>700465</v>
+        <v>700813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>755821</v>
+        <v>761096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7104549380024535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6813031808642613</v>
+        <v>0.6816417940686795</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7351452416708104</v>
+        <v>0.7402761475762631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1713</v>
@@ -2613,19 +2613,19 @@
         <v>1801290</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1757629</v>
+        <v>1759476</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1844048</v>
+        <v>1847641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.737912182354151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7200260581489484</v>
+        <v>0.7207825673002648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7554283016414294</v>
+        <v>0.7569000726721996</v>
       </c>
     </row>
     <row r="15">
